--- a/testData/fileFromMyLearning.xlsx
+++ b/testData/fileFromMyLearning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nflet\Desktop\project_elevate\src\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nflet\Desktop\project_elevate\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE0D16-3518-4902-AC7D-20860D14E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E486E30-D6D1-4232-9D86-67AB5CFE7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F953F6D-6108-48DF-84B0-019CDD11384F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Edipi</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Date Completed</t>
-  </si>
-  <si>
-    <t>Complete</t>
   </si>
   <si>
     <t>Bill</t>
@@ -551,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A44424-79B9-4873-A474-B9A2275323BF}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +560,7 @@
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,25 +594,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4453245321</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>44836</v>
@@ -624,36 +618,36 @@
         <v>44864</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>44197</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1">
         <v>45185</v>
@@ -662,76 +656,76 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1">
         <v>45651</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
         <v>45650</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1">
         <v>45386</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="1">
         <v>44326</v>
@@ -740,18 +734,18 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1">
         <v>45058</v>
@@ -760,18 +754,18 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
         <v>45463</v>
@@ -780,18 +774,18 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1">
         <v>44478</v>
@@ -800,36 +794,36 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1">
         <v>43863</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1">
         <v>44019</v>
@@ -838,18 +832,18 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1">
         <v>45577</v>
@@ -858,18 +852,18 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1">
         <v>43685</v>
@@ -878,18 +872,18 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>80</v>
       </c>
       <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1">
         <v>45222</v>
@@ -908,6 +902,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6C448555B60D245BACA53F541ADD17D" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e01543e37ea099b4e9603609b3edf859">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c8c6209-72c8-45fa-aca9-7868482c6424" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c559cc199a8b54f60e73a8281a969e9" ns3:_="">
     <xsd:import namespace="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
@@ -1057,22 +1066,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F8454C2-E360-4585-BADB-CE61BB28CCB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1088,28 +1106,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/testData/fileFromMyLearning.xlsx
+++ b/testData/fileFromMyLearning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nflet\Desktop\project_elevate\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E486E30-D6D1-4232-9D86-67AB5CFE7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD9EA5-2F4F-426D-AA90-9558EBFAB790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F953F6D-6108-48DF-84B0-019CDD11384F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Edipi</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Course Name</t>
-  </si>
-  <si>
-    <t>Enrollment Date</t>
   </si>
   <si>
     <t>Grade</t>
@@ -548,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A44424-79B9-4873-A474-B9A2275323BF}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +557,7 @@
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,304 +588,256 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4453245321</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44836</v>
-      </c>
-      <c r="K2" s="1">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1">
         <v>44864</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44197</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1">
-        <v>45185</v>
-      </c>
-      <c r="K4" s="1">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1">
         <v>45186</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1">
-        <v>45651</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45650</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45386</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1">
-        <v>44326</v>
-      </c>
-      <c r="K8" s="1">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1">
         <v>44327</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1">
-        <v>45058</v>
-      </c>
-      <c r="K9" s="1">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1">
         <v>45578</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1">
-        <v>45463</v>
-      </c>
-      <c r="K10" s="1">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1">
         <v>45473</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>40</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1">
-        <v>44478</v>
-      </c>
-      <c r="K11" s="1">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1">
         <v>45574</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1">
-        <v>43863</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1">
-        <v>44019</v>
-      </c>
-      <c r="K13" s="1">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1">
         <v>44075</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
       <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="1">
-        <v>45577</v>
-      </c>
-      <c r="K14" s="1">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1">
         <v>45580</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1">
-        <v>43685</v>
-      </c>
-      <c r="K15" s="1">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1">
         <v>44063</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>80</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
       <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="1">
-        <v>45222</v>
-      </c>
-      <c r="K16" s="1">
+        <v>36</v>
+      </c>
+      <c r="J16" s="1">
         <v>45222</v>
       </c>
     </row>
@@ -902,21 +851,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6C448555B60D245BACA53F541ADD17D" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e01543e37ea099b4e9603609b3edf859">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c8c6209-72c8-45fa-aca9-7868482c6424" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c559cc199a8b54f60e73a8281a969e9" ns3:_="">
     <xsd:import namespace="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
@@ -1066,31 +1000,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F8454C2-E360-4585-BADB-CE61BB28CCB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1106,4 +1031,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27BDAE7-4200-4291-BCAA-D75E9CAAE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA46875F-3AE0-4B34-80AA-D372034A6B40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c8c6209-72c8-45fa-aca9-7868482c6424"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>